--- a/regionseng/4/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/4/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,13 +99,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -272,7 +276,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -280,6 +284,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -334,12 +341,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -356,9 +357,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
@@ -664,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -678,14 +686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="15">
@@ -698,18 +706,18 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11">
       <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -867,20 +875,20 @@
       <c r="A12" s="19">
         <v>2016</v>
       </c>
-      <c r="B12" s="28">
-        <v>53748.063199999982</v>
-      </c>
-      <c r="C12" s="28">
-        <v>10794.7844</v>
-      </c>
-      <c r="D12" s="28">
-        <v>20476.454500000007</v>
-      </c>
-      <c r="E12" s="28">
-        <v>23500.702400000027</v>
-      </c>
-      <c r="F12" s="29">
-        <v>108520.00450000001</v>
+      <c r="B12" s="26">
+        <v>53748.063400000028</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10794.784200000007</v>
+      </c>
+      <c r="D12" s="26">
+        <v>20476.455299999991</v>
+      </c>
+      <c r="E12" s="26">
+        <v>23500.702300000008</v>
+      </c>
+      <c r="F12" s="27">
+        <v>108520.00520000003</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -889,19 +897,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="20">
-        <v>60752.09739999997</v>
+        <v>61041.209599999973</v>
       </c>
       <c r="C13" s="20">
-        <v>52465.428500000016</v>
+        <v>52224.50089999997</v>
       </c>
       <c r="D13" s="20">
-        <v>96473.162800000064</v>
+        <v>96714.09070000003</v>
       </c>
       <c r="E13" s="20">
-        <v>3218.4906999999944</v>
+        <v>2929.3779000000063</v>
       </c>
       <c r="F13" s="21">
-        <v>212909.17940000005</v>
+        <v>212909.17909999998</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -910,19 +918,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="20">
-        <v>-19206.453699999984</v>
+        <v>-19206.453899999997</v>
       </c>
       <c r="C14" s="20">
-        <v>101099.30930000004</v>
+        <v>101099.30930000002</v>
       </c>
       <c r="D14" s="20">
-        <v>5305.5279</v>
+        <v>5305.5280999999959</v>
       </c>
       <c r="E14" s="20">
-        <v>-2183.1771000000022</v>
+        <v>-2183.1773000000067</v>
       </c>
       <c r="F14" s="21">
-        <v>85015.206400000054</v>
+        <v>85015.206200000015</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -930,19 +938,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="20">
-        <v>24930.624200000013</v>
+        <v>27224.683200000007</v>
       </c>
       <c r="C15" s="20">
-        <v>33525.053100000005</v>
+        <v>33207.084900000016</v>
       </c>
       <c r="D15" s="20">
-        <v>44058.121499999994</v>
+        <v>44782.61759999999</v>
       </c>
       <c r="E15" s="20">
-        <v>90757.47619999999</v>
+        <v>91012.98809999993</v>
       </c>
       <c r="F15" s="21">
-        <v>193271.27500000002</v>
+        <v>196227.37379999994</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -950,19 +958,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="20">
-        <v>15169.578499999992</v>
+        <v>15424.325199999994</v>
       </c>
       <c r="C16" s="20">
-        <v>39947.611000000019</v>
+        <v>39988.812599999968</v>
       </c>
       <c r="D16" s="20">
-        <v>-4873.3680999999979</v>
+        <v>-5575.9183999999977</v>
       </c>
       <c r="E16" s="20">
-        <v>28238.176699999985</v>
+        <v>29835.678500000005</v>
       </c>
       <c r="F16" s="21">
-        <v>78481.998099999997</v>
+        <v>79672.897899999967</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -970,19 +978,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="20">
-        <v>12346.787499999999</v>
+        <v>18008.700499999999</v>
       </c>
       <c r="C17" s="20">
-        <v>32248.122599999999</v>
+        <v>29839.110699999979</v>
       </c>
       <c r="D17" s="20">
-        <v>62139.206699999937</v>
+        <v>58980.246499999994</v>
       </c>
       <c r="E17" s="20">
-        <v>-21795.89209999999</v>
+        <v>-22892.170400000039</v>
       </c>
       <c r="F17" s="21">
-        <v>84938.224699999933</v>
+        <v>83935.887299999944</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -994,19 +1002,23 @@
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="19" t="s">
-        <v>14</v>
+      <c r="A18" s="19">
+        <v>2022</v>
       </c>
       <c r="B18" s="20">
-        <v>59924.140200000009</v>
+        <v>44609.939599999998</v>
       </c>
       <c r="C18" s="20">
-        <v>47076.947800000016</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+        <v>35404.635299999987</v>
+      </c>
+      <c r="D18" s="20">
+        <v>22852.609199999995</v>
+      </c>
+      <c r="E18" s="20">
+        <v>-42249.314500000037</v>
+      </c>
       <c r="F18" s="21">
-        <v>107001.08800000002</v>
+        <v>60617.869599999933</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1018,8 +1030,23 @@
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>12</v>
+      <c r="A19" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="20">
+        <v>11055.878499999993</v>
+      </c>
+      <c r="C19" s="20">
+        <v>32989.727299999999</v>
+      </c>
+      <c r="D19" s="20">
+        <v>20900.576399999994</v>
+      </c>
+      <c r="E19" s="20">
+        <v>-4983.5635000000075</v>
+      </c>
+      <c r="F19" s="21">
+        <v>59962.618699999977</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1031,58 +1058,53 @@
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="A20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="20">
+        <v>20767.712600000003</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21">
+        <v>20767.712600000003</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1102,7 +1124,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1122,7 +1144,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1141,7 +1163,9 @@
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1158,30 +1182,68 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:16" ht="48.6" customHeight="1">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" ht="48.6" customHeight="1">
+      <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/4/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/4/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -351,17 +351,17 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -675,7 +675,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -686,14 +686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="15">
@@ -708,16 +708,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="9"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -1064,11 +1064,13 @@
       <c r="B20" s="20">
         <v>20767.712600000003</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20">
+        <v>15631.674000000008</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21">
-        <v>20767.712600000003</v>
+        <v>36399.386600000013</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1221,14 +1223,14 @@
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="48.6" customHeight="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
